--- a/StyleOfDelivery/BCIO_StyleOfDelivery.xlsx
+++ b/StyleOfDelivery/BCIO_StyleOfDelivery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/StyleOfDelivery/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/StyleOfDelivery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DE9C7B-54F7-2147-A26F-79AABFFDC3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E536AE-EDB9-8045-8479-9725FB91A5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21640" yWindow="-19860" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="554">
   <si>
     <t>ID</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Elaboration</t>
-  </si>
-  <si>
-    <t>REL</t>
   </si>
   <si>
     <t>BFO entity</t>
@@ -648,9 +645,6 @@
     <t>communication process attribute</t>
   </si>
   <si>
-    <t>attribute</t>
-  </si>
-  <si>
     <t>An attribute of a communication process.</t>
   </si>
   <si>
@@ -1695,6 +1689,15 @@
   </si>
   <si>
     <t>Published</t>
+  </si>
+  <si>
+    <t>process attribute</t>
+  </si>
+  <si>
+    <t>REL 'is process attribute of'</t>
+  </si>
+  <si>
+    <t>BCIO:044131</t>
   </si>
 </sst>
 </file>
@@ -2043,11 +2046,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="R144" sqref="R144"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2081,3219 +2088,3225 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>525</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>526</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>124</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>128</v>
+      </c>
+      <c r="I7" t="s">
+        <v>129</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>174</v>
+      </c>
+      <c r="J9" t="s">
+        <v>175</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>182</v>
+      </c>
+      <c r="J11" t="s">
+        <v>183</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>189</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P14" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>429</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>419</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s">
-        <v>79</v>
+        <v>430</v>
+      </c>
+      <c r="I18" t="s">
+        <v>431</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" t="s">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>348</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>349</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>350</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" t="s">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="J21" t="s">
+        <v>96</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>375</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>376</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>377</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="J23" t="s">
+        <v>88</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>551</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
       </c>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P25" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>382</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" t="s">
-        <v>113</v>
+        <v>383</v>
+      </c>
+      <c r="J26" t="s">
+        <v>384</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P26" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>468</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>469</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" t="s">
-        <v>118</v>
+        <v>470</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>461</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>462</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>463</v>
       </c>
       <c r="M28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
         <v>20</v>
       </c>
-      <c r="D29" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" t="s">
-        <v>126</v>
+      <c r="G29" t="s">
+        <v>21</v>
       </c>
       <c r="M29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="M30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="M31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P31" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>64</v>
       </c>
       <c r="M32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P32" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="M33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P33" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>82</v>
+      </c>
+      <c r="J34" t="s">
+        <v>83</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P34" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>99</v>
+      </c>
+      <c r="H35" t="s">
+        <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="M35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P35" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>306</v>
+      </c>
+      <c r="G36" t="s">
+        <v>307</v>
       </c>
       <c r="J36" t="s">
-        <v>151</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
-      </c>
-      <c r="H37" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="M37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P37" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I38" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="P38" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
-      </c>
-      <c r="J39" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="M39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P39" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="M40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P40" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="J41" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="M41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P41" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
-      </c>
-      <c r="J42" t="s">
-        <v>176</v>
+        <v>153</v>
+      </c>
+      <c r="H42" t="s">
+        <v>154</v>
       </c>
       <c r="M42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P42" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
-      </c>
-      <c r="H43" t="s">
-        <v>180</v>
+        <v>338</v>
+      </c>
+      <c r="I43" t="s">
+        <v>339</v>
+      </c>
+      <c r="J43" t="s">
+        <v>340</v>
       </c>
       <c r="M43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P43" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
-      </c>
-      <c r="J44" t="s">
-        <v>184</v>
+        <v>234</v>
+      </c>
+      <c r="H44" t="s">
+        <v>235</v>
       </c>
       <c r="M44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P44" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>238</v>
+      </c>
+      <c r="J45" t="s">
+        <v>239</v>
       </c>
       <c r="M45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P45" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
-      </c>
-      <c r="H46" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="M46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P46" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
-      </c>
-      <c r="H47" t="s">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="M47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P47" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="B48" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>271</v>
+      </c>
+      <c r="I48" t="s">
+        <v>272</v>
       </c>
       <c r="M48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P48" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>242</v>
+      </c>
+      <c r="H49" t="s">
+        <v>243</v>
       </c>
       <c r="M49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P49" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>246</v>
+      </c>
+      <c r="I50" t="s">
+        <v>247</v>
       </c>
       <c r="J50" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="M50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P50" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>257</v>
+      </c>
+      <c r="H51" t="s">
+        <v>258</v>
+      </c>
+      <c r="I51" t="s">
+        <v>259</v>
+      </c>
+      <c r="J51" t="s">
+        <v>260</v>
       </c>
       <c r="M51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P51" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="M52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P52" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="M53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P53" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="M54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P54" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
-      </c>
-      <c r="H55" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="M55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P55" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="H56" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="M56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P56" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="M57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P57" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="M58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P58" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="M59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P59" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>234</v>
+        <v>323</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>324</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
-      </c>
-      <c r="H60" t="s">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="M60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P60" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>238</v>
+        <v>344</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>345</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
-      </c>
-      <c r="J61" t="s">
-        <v>241</v>
+        <v>346</v>
+      </c>
+      <c r="I61" t="s">
+        <v>347</v>
       </c>
       <c r="M61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P61" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>242</v>
+        <v>372</v>
       </c>
       <c r="B62" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
-      </c>
-      <c r="H62" t="s">
-        <v>245</v>
+        <v>374</v>
       </c>
       <c r="M62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P62" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
-      </c>
-      <c r="I63" t="s">
-        <v>249</v>
-      </c>
-      <c r="J63" t="s">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="M63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P63" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="B64" t="s">
-        <v>252</v>
+        <v>401</v>
       </c>
       <c r="C64" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>402</v>
       </c>
       <c r="M64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P64" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>403</v>
       </c>
       <c r="B65" t="s">
-        <v>255</v>
+        <v>404</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>405</v>
       </c>
       <c r="M65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P65" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
-      </c>
-      <c r="H66" t="s">
-        <v>260</v>
+        <v>451</v>
       </c>
       <c r="I66" t="s">
-        <v>261</v>
+        <v>452</v>
       </c>
       <c r="J66" t="s">
-        <v>262</v>
+        <v>453</v>
       </c>
       <c r="M66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P66" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>263</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>458</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>265</v>
+        <v>459</v>
+      </c>
+      <c r="J67" t="s">
+        <v>460</v>
       </c>
       <c r="M67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P67" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>266</v>
+        <v>486</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>268</v>
+        <v>487</v>
       </c>
       <c r="M68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P68" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>269</v>
+        <v>533</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>534</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="D69" t="s">
-        <v>270</v>
+        <v>535</v>
+      </c>
+      <c r="H69" t="s">
+        <v>536</v>
       </c>
       <c r="M69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P69" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="C70" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="D70" t="s">
-        <v>273</v>
-      </c>
-      <c r="I70" t="s">
-        <v>274</v>
+        <v>312</v>
+      </c>
+      <c r="H70" t="s">
+        <v>313</v>
       </c>
       <c r="M70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P70" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>275</v>
+        <v>396</v>
       </c>
       <c r="B71" t="s">
-        <v>276</v>
+        <v>397</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>398</v>
+      </c>
+      <c r="H71" t="s">
+        <v>399</v>
       </c>
       <c r="M71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="B72" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>311</v>
       </c>
       <c r="D72" t="s">
-        <v>280</v>
+        <v>321</v>
+      </c>
+      <c r="H72" t="s">
+        <v>322</v>
       </c>
       <c r="M72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P72" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>281</v>
+        <v>478</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>479</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>311</v>
       </c>
       <c r="D73" t="s">
-        <v>283</v>
+        <v>480</v>
+      </c>
+      <c r="H73" t="s">
+        <v>481</v>
       </c>
       <c r="M73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P73" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>284</v>
+        <v>508</v>
       </c>
       <c r="B74" t="s">
-        <v>285</v>
+        <v>509</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
-      </c>
-      <c r="H74" t="s">
-        <v>287</v>
+        <v>510</v>
+      </c>
+      <c r="J74" t="s">
+        <v>511</v>
       </c>
       <c r="M74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P74" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>288</v>
+        <v>517</v>
       </c>
       <c r="B75" t="s">
-        <v>289</v>
+        <v>518</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>519</v>
       </c>
       <c r="M75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P75" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>291</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>292</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
         <v>26</v>
       </c>
-      <c r="D76" t="s">
-        <v>293</v>
-      </c>
       <c r="M76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P76" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>295</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>296</v>
-      </c>
-      <c r="I77" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="M77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P77" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>298</v>
+        <v>553</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>300</v>
-      </c>
-      <c r="J78" t="s">
-        <v>301</v>
+        <v>46</v>
       </c>
       <c r="M78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P78" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>302</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>303</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>304</v>
-      </c>
-      <c r="I79" t="s">
-        <v>305</v>
-      </c>
-      <c r="J79" t="s">
-        <v>306</v>
+        <v>49</v>
+      </c>
+      <c r="H79" t="s">
+        <v>50</v>
       </c>
       <c r="M79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P79" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>308</v>
-      </c>
-      <c r="G80" t="s">
-        <v>309</v>
+        <v>72</v>
+      </c>
+      <c r="I80" t="s">
+        <v>73</v>
       </c>
       <c r="J80" t="s">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="M80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P80" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="B81" t="s">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="D81" t="s">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s">
-        <v>315</v>
+        <v>78</v>
+      </c>
+      <c r="J81" t="s">
+        <v>79</v>
       </c>
       <c r="M81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P81" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>316</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>317</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>318</v>
-      </c>
-      <c r="I82" t="s">
-        <v>319</v>
-      </c>
-      <c r="J82" t="s">
-        <v>320</v>
+        <v>111</v>
+      </c>
+      <c r="G82" t="s">
+        <v>112</v>
       </c>
       <c r="M82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P82" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>322</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>323</v>
-      </c>
-      <c r="H83" t="s">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="M83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P83" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="B84" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D84" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="M84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P84" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="B85" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>330</v>
-      </c>
-      <c r="H85" t="s">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="M85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P85" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="B86" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
-        <v>334</v>
+        <v>217</v>
+      </c>
+      <c r="H86" t="s">
+        <v>218</v>
       </c>
       <c r="M86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P86" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="B87" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="H87" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="M87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P87" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
-        <v>340</v>
-      </c>
-      <c r="I88" t="s">
-        <v>341</v>
-      </c>
-      <c r="J88" t="s">
-        <v>342</v>
+        <v>225</v>
       </c>
       <c r="M88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P88" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>344</v>
+        <v>227</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
-        <v>345</v>
+        <v>228</v>
       </c>
       <c r="M89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P89" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>346</v>
+        <v>229</v>
       </c>
       <c r="B90" t="s">
-        <v>347</v>
+        <v>230</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>348</v>
-      </c>
-      <c r="I90" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="M90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P90" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="B91" t="s">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="C91" t="s">
-        <v>352</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="M91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P91" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>354</v>
+        <v>289</v>
       </c>
       <c r="B92" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>356</v>
+        <v>291</v>
       </c>
       <c r="M92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P92" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>357</v>
+        <v>292</v>
       </c>
       <c r="B93" t="s">
-        <v>358</v>
+        <v>293</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>359</v>
+        <v>294</v>
+      </c>
+      <c r="I93" t="s">
+        <v>295</v>
       </c>
       <c r="M93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P93" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="B94" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>362</v>
+        <v>302</v>
+      </c>
+      <c r="I94" t="s">
+        <v>303</v>
       </c>
       <c r="J94" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="M94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P94" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="B95" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
-        <v>366</v>
+        <v>316</v>
+      </c>
+      <c r="I95" t="s">
+        <v>317</v>
+      </c>
+      <c r="J95" t="s">
+        <v>318</v>
       </c>
       <c r="M95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P95" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="B96" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>369</v>
-      </c>
-      <c r="I96" t="s">
-        <v>370</v>
+        <v>328</v>
+      </c>
+      <c r="H96" t="s">
+        <v>329</v>
       </c>
       <c r="M96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P96" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C97" t="s">
-        <v>372</v>
+        <v>25</v>
       </c>
       <c r="D97" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="M97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P97" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="B98" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>376</v>
+        <v>335</v>
+      </c>
+      <c r="H98" t="s">
+        <v>336</v>
       </c>
       <c r="M98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P98" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="B99" t="s">
-        <v>87</v>
+        <v>342</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>378</v>
-      </c>
-      <c r="J99" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="M99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P99" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c r="C100" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="M100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P100" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="B101" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D101" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="J101" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="M101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P101" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="B102" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="C102" t="s">
-        <v>372</v>
+        <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="M102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P102" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B103" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D103" t="s">
-        <v>392</v>
-      </c>
-      <c r="H103" t="s">
-        <v>393</v>
-      </c>
-      <c r="J103" t="s">
-        <v>394</v>
+        <v>367</v>
+      </c>
+      <c r="I103" t="s">
+        <v>368</v>
       </c>
       <c r="M103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P103" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B104" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C104" t="s">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
-        <v>397</v>
+        <v>390</v>
+      </c>
+      <c r="H104" t="s">
+        <v>391</v>
+      </c>
+      <c r="J104" t="s">
+        <v>392</v>
       </c>
       <c r="M104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P104" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C105" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="D105" t="s">
-        <v>400</v>
-      </c>
-      <c r="H105" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P105" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B106" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P106" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B107" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D107" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="M107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P107" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="B108" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D108" t="s">
-        <v>410</v>
+        <v>466</v>
+      </c>
+      <c r="I108" t="s">
+        <v>467</v>
       </c>
       <c r="M108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P108" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="B109" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D109" t="s">
-        <v>413</v>
+        <v>473</v>
+      </c>
+      <c r="G109" t="s">
+        <v>474</v>
       </c>
       <c r="M109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P109" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="B110" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="M110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P110" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="B111" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="C111" t="s">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="D111" t="s">
-        <v>419</v>
+        <v>494</v>
+      </c>
+      <c r="H111" t="s">
+        <v>495</v>
       </c>
       <c r="M111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P111" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="B112" t="s">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="C112" t="s">
-        <v>418</v>
+        <v>25</v>
       </c>
       <c r="D112" t="s">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="I112" t="s">
-        <v>423</v>
+        <v>499</v>
+      </c>
+      <c r="J112" t="s">
+        <v>500</v>
       </c>
       <c r="M112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P112" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="B113" t="s">
-        <v>425</v>
+        <v>502</v>
       </c>
       <c r="C113" t="s">
-        <v>421</v>
+        <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>426</v>
+        <v>503</v>
+      </c>
+      <c r="J113" t="s">
+        <v>504</v>
       </c>
       <c r="M113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P113" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="B114" t="s">
-        <v>428</v>
+        <v>513</v>
       </c>
       <c r="C114" t="s">
-        <v>421</v>
+        <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>429</v>
+        <v>514</v>
+      </c>
+      <c r="H114" t="s">
+        <v>515</v>
+      </c>
+      <c r="I114" t="s">
+        <v>516</v>
       </c>
       <c r="M114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P114" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>430</v>
+        <v>528</v>
       </c>
       <c r="B115" t="s">
-        <v>431</v>
+        <v>529</v>
       </c>
       <c r="C115" t="s">
-        <v>421</v>
+        <v>25</v>
       </c>
       <c r="D115" t="s">
-        <v>432</v>
-      </c>
-      <c r="I115" t="s">
-        <v>433</v>
+        <v>530</v>
+      </c>
+      <c r="H115" t="s">
+        <v>531</v>
       </c>
       <c r="J115" t="s">
-        <v>434</v>
+        <v>532</v>
       </c>
       <c r="M115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P115" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>435</v>
+        <v>537</v>
       </c>
       <c r="B116" t="s">
-        <v>436</v>
+        <v>538</v>
       </c>
       <c r="C116" t="s">
-        <v>418</v>
+        <v>25</v>
       </c>
       <c r="D116" t="s">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="M116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P116" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>438</v>
+        <v>543</v>
       </c>
       <c r="B117" t="s">
-        <v>439</v>
+        <v>544</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>440</v>
+        <v>545</v>
       </c>
       <c r="M117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P117" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>441</v>
+        <v>546</v>
       </c>
       <c r="B118" t="s">
-        <v>442</v>
+        <v>547</v>
       </c>
       <c r="C118" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="D118" t="s">
-        <v>443</v>
-      </c>
-      <c r="G118" t="s">
-        <v>444</v>
-      </c>
-      <c r="I118" t="s">
-        <v>445</v>
-      </c>
-      <c r="J118" t="s">
-        <v>446</v>
+        <v>548</v>
+      </c>
+      <c r="H118" t="s">
+        <v>549</v>
       </c>
       <c r="M118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P118" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="B119" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="C119" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="I119" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="M119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P119" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>451</v>
+        <v>540</v>
       </c>
       <c r="B120" t="s">
-        <v>452</v>
+        <v>541</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="D120" t="s">
-        <v>453</v>
-      </c>
-      <c r="I120" t="s">
-        <v>454</v>
-      </c>
-      <c r="J120" t="s">
-        <v>455</v>
+        <v>542</v>
       </c>
       <c r="M120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P120" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>454</v>
+      </c>
+      <c r="B121" t="s">
+        <v>455</v>
+      </c>
+      <c r="C121" t="s">
+        <v>202</v>
+      </c>
+      <c r="D121" t="s">
         <v>456</v>
       </c>
-      <c r="B121" t="s">
-        <v>457</v>
-      </c>
-      <c r="C121" t="s">
-        <v>203</v>
-      </c>
-      <c r="D121" t="s">
-        <v>458</v>
-      </c>
       <c r="M121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P121" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B122" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="D122" t="s">
-        <v>461</v>
-      </c>
-      <c r="J122" t="s">
-        <v>462</v>
+        <v>447</v>
+      </c>
+      <c r="I122" t="s">
+        <v>448</v>
       </c>
       <c r="M122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P122" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="B123" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="C123" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="D123" t="s">
-        <v>465</v>
+        <v>522</v>
+      </c>
+      <c r="I123" t="s">
+        <v>523</v>
+      </c>
+      <c r="J123" t="s">
+        <v>524</v>
       </c>
       <c r="M123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P123" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B124" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="D124" t="s">
-        <v>468</v>
+        <v>441</v>
+      </c>
+      <c r="G124" t="s">
+        <v>442</v>
       </c>
       <c r="I124" t="s">
-        <v>469</v>
+        <v>443</v>
+      </c>
+      <c r="J124" t="s">
+        <v>444</v>
       </c>
       <c r="M124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P124" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B125" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C125" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="D125" t="s">
-        <v>472</v>
+        <v>484</v>
+      </c>
+      <c r="I125" t="s">
+        <v>485</v>
       </c>
       <c r="M125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P125" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>473</v>
+        <v>378</v>
       </c>
       <c r="B126" t="s">
-        <v>474</v>
+        <v>91</v>
       </c>
       <c r="C126" t="s">
-        <v>26</v>
+        <v>379</v>
       </c>
       <c r="D126" t="s">
-        <v>475</v>
-      </c>
-      <c r="G126" t="s">
-        <v>476</v>
+        <v>380</v>
       </c>
       <c r="M126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P126" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>477</v>
+        <v>393</v>
       </c>
       <c r="B127" t="s">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="C127" t="s">
-        <v>26</v>
+        <v>349</v>
       </c>
       <c r="D127" t="s">
-        <v>479</v>
+        <v>395</v>
       </c>
       <c r="M127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P127" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>480</v>
+        <v>415</v>
       </c>
       <c r="B128" t="s">
-        <v>481</v>
+        <v>416</v>
       </c>
       <c r="C128" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="D128" t="s">
-        <v>482</v>
-      </c>
-      <c r="H128" t="s">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="M128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P128" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="B129" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
       <c r="C129" t="s">
-        <v>203</v>
+        <v>416</v>
       </c>
       <c r="D129" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="I129" t="s">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="M129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P129" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>488</v>
+        <v>425</v>
       </c>
       <c r="B130" t="s">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="D130" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P130" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>490</v>
+        <v>433</v>
       </c>
       <c r="B131" t="s">
-        <v>491</v>
+        <v>434</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="D131" t="s">
-        <v>492</v>
-      </c>
-      <c r="I131" t="s">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="M131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P131" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>494</v>
+        <v>385</v>
       </c>
       <c r="B132" t="s">
-        <v>495</v>
+        <v>386</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
+        <v>370</v>
       </c>
       <c r="D132" t="s">
-        <v>496</v>
-      </c>
-      <c r="H132" t="s">
-        <v>497</v>
+        <v>387</v>
       </c>
       <c r="M132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P132" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>498</v>
+        <v>422</v>
       </c>
       <c r="B133" t="s">
-        <v>499</v>
+        <v>423</v>
       </c>
       <c r="C133" t="s">
-        <v>26</v>
+        <v>419</v>
       </c>
       <c r="D133" t="s">
-        <v>500</v>
-      </c>
-      <c r="I133" t="s">
-        <v>501</v>
-      </c>
-      <c r="J133" t="s">
-        <v>502</v>
+        <v>424</v>
       </c>
       <c r="M133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P133" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>503</v>
+        <v>35</v>
       </c>
       <c r="B134" t="s">
-        <v>504</v>
+        <v>36</v>
       </c>
       <c r="C134" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D134" t="s">
-        <v>505</v>
-      </c>
-      <c r="J134" t="s">
-        <v>506</v>
+        <v>37</v>
       </c>
       <c r="M134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P134" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="B135" t="s">
-        <v>508</v>
+        <v>42</v>
       </c>
       <c r="C135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D135" t="s">
-        <v>509</v>
+        <v>43</v>
+      </c>
+      <c r="G135" t="s">
+        <v>44</v>
       </c>
       <c r="M135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P135" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>510</v>
+        <v>51</v>
       </c>
       <c r="B136" t="s">
-        <v>511</v>
+        <v>52</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D136" t="s">
-        <v>512</v>
-      </c>
-      <c r="J136" t="s">
-        <v>513</v>
+        <v>54</v>
       </c>
       <c r="M136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P136" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>514</v>
+        <v>155</v>
       </c>
       <c r="B137" t="s">
-        <v>515</v>
+        <v>156</v>
       </c>
       <c r="C137" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="D137" t="s">
-        <v>516</v>
-      </c>
-      <c r="H137" t="s">
-        <v>517</v>
+        <v>158</v>
       </c>
       <c r="I137" t="s">
-        <v>518</v>
+        <v>159</v>
       </c>
       <c r="M137" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="N137" t="s">
+        <v>160</v>
       </c>
       <c r="P137" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>519</v>
+        <v>113</v>
       </c>
       <c r="B138" t="s">
-        <v>520</v>
+        <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="D138" t="s">
-        <v>521</v>
+        <v>115</v>
+      </c>
+      <c r="G138" t="s">
+        <v>116</v>
+      </c>
+      <c r="J138" t="s">
+        <v>117</v>
       </c>
       <c r="M138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P138" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>522</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
-        <v>523</v>
+        <v>162</v>
       </c>
       <c r="C139" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="D139" t="s">
-        <v>524</v>
-      </c>
-      <c r="I139" t="s">
-        <v>525</v>
+        <v>163</v>
       </c>
       <c r="J139" t="s">
-        <v>526</v>
+        <v>164</v>
       </c>
       <c r="M139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P139" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>527</v>
+        <v>165</v>
       </c>
       <c r="B140" t="s">
-        <v>528</v>
+        <v>166</v>
       </c>
       <c r="C140" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D140" t="s">
-        <v>529</v>
+        <v>167</v>
+      </c>
+      <c r="I140" t="s">
+        <v>168</v>
       </c>
       <c r="M140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P140" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>530</v>
+        <v>169</v>
       </c>
       <c r="B141" t="s">
-        <v>531</v>
+        <v>170</v>
       </c>
       <c r="C141" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="D141" t="s">
-        <v>532</v>
-      </c>
-      <c r="H141" t="s">
-        <v>533</v>
+        <v>171</v>
       </c>
       <c r="J141" t="s">
-        <v>534</v>
+        <v>164</v>
       </c>
       <c r="M141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P141" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>535</v>
+        <v>205</v>
       </c>
       <c r="B142" t="s">
-        <v>536</v>
+        <v>120</v>
       </c>
       <c r="C142" t="s">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="D142" t="s">
-        <v>537</v>
-      </c>
-      <c r="H142" t="s">
-        <v>538</v>
+        <v>206</v>
       </c>
       <c r="M142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P142" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>539</v>
+        <v>296</v>
       </c>
       <c r="B143" t="s">
-        <v>540</v>
+        <v>297</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D143" t="s">
-        <v>541</v>
+        <v>298</v>
+      </c>
+      <c r="J143" t="s">
+        <v>299</v>
       </c>
       <c r="M143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P143" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>542</v>
+        <v>352</v>
       </c>
       <c r="B144" t="s">
-        <v>543</v>
+        <v>353</v>
       </c>
       <c r="C144" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="D144" t="s">
-        <v>544</v>
+        <v>354</v>
       </c>
       <c r="M144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P144" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>545</v>
+        <v>436</v>
       </c>
       <c r="B145" t="s">
-        <v>546</v>
+        <v>437</v>
       </c>
       <c r="C145" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D145" t="s">
-        <v>547</v>
+        <v>438</v>
       </c>
       <c r="M145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P145" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>548</v>
+        <v>505</v>
       </c>
       <c r="B146" t="s">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="C146" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D146" t="s">
-        <v>550</v>
-      </c>
-      <c r="H146" t="s">
-        <v>551</v>
+        <v>507</v>
       </c>
       <c r="M146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P146" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R146">
+    <sortCondition ref="A2:A146"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/StyleOfDelivery/BCIO_StyleOfDelivery.xlsx
+++ b/StyleOfDelivery/BCIO_StyleOfDelivery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/StyleOfDelivery/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/StyleOfDelivery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E536AE-EDB9-8045-8479-9725FB91A5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F70F71-29A8-F141-9850-CF708CDE77CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21640" yWindow="-19860" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="553">
   <si>
     <t>ID</t>
   </si>
@@ -506,9 +506,6 @@
   </si>
   <si>
     <t>Elicit concerns, problems and reactions</t>
-  </si>
-  <si>
-    <t>lz</t>
   </si>
   <si>
     <t>BCIO:050385</t>
@@ -2046,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M137" sqref="M137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2088,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -2114,22 +2111,22 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" t="s">
         <v>525</v>
-      </c>
-      <c r="B2" t="s">
-        <v>526</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -2152,7 +2149,7 @@
         <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -2172,7 +2169,7 @@
         <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -2192,7 +2189,7 @@
         <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -2215,7 +2212,7 @@
         <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -2238,7 +2235,7 @@
         <v>22</v>
       </c>
       <c r="P7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -2258,182 +2255,182 @@
         <v>22</v>
       </c>
       <c r="P8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
         <v>172</v>
-      </c>
-      <c r="B9" t="s">
-        <v>173</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" t="s">
         <v>174</v>
       </c>
-      <c r="J9" t="s">
-        <v>175</v>
-      </c>
       <c r="M9" t="s">
         <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" t="s">
         <v>176</v>
-      </c>
-      <c r="B10" t="s">
-        <v>177</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" t="s">
         <v>178</v>
       </c>
-      <c r="H10" t="s">
-        <v>179</v>
-      </c>
       <c r="M10" t="s">
         <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
         <v>180</v>
-      </c>
-      <c r="B11" t="s">
-        <v>181</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" t="s">
         <v>182</v>
       </c>
-      <c r="J11" t="s">
-        <v>183</v>
-      </c>
       <c r="M11" t="s">
         <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
         <v>184</v>
-      </c>
-      <c r="B12" t="s">
-        <v>185</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
       </c>
       <c r="P12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" t="s">
         <v>187</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" t="s">
         <v>188</v>
       </c>
-      <c r="C13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
         <v>189</v>
       </c>
-      <c r="H13" t="s">
-        <v>190</v>
-      </c>
       <c r="M13" t="s">
         <v>22</v>
       </c>
       <c r="P13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" t="s">
         <v>191</v>
-      </c>
-      <c r="B14" t="s">
-        <v>192</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" t="s">
         <v>193</v>
       </c>
-      <c r="H14" t="s">
-        <v>194</v>
-      </c>
       <c r="M14" t="s">
         <v>22</v>
       </c>
       <c r="P14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" t="s">
         <v>195</v>
-      </c>
-      <c r="B15" t="s">
-        <v>196</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M15" t="s">
         <v>22</v>
       </c>
       <c r="P15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" t="s">
         <v>198</v>
-      </c>
-      <c r="B16" t="s">
-        <v>199</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s">
         <v>22</v>
       </c>
       <c r="P16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -2453,73 +2450,73 @@
         <v>22</v>
       </c>
       <c r="P17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>427</v>
+      </c>
+      <c r="B18" t="s">
         <v>428</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" t="s">
         <v>429</v>
       </c>
-      <c r="C18" t="s">
-        <v>419</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="I18" t="s">
         <v>430</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>431</v>
       </c>
-      <c r="J18" t="s">
-        <v>432</v>
-      </c>
       <c r="M18" t="s">
         <v>22</v>
       </c>
       <c r="P18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" t="s">
         <v>369</v>
       </c>
-      <c r="B19" t="s">
-        <v>350</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>370</v>
       </c>
-      <c r="D19" t="s">
-        <v>371</v>
-      </c>
       <c r="M19" t="s">
         <v>22</v>
       </c>
       <c r="P19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" t="s">
         <v>348</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>349</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>350</v>
       </c>
-      <c r="D20" t="s">
-        <v>351</v>
-      </c>
       <c r="M20" t="s">
         <v>22</v>
       </c>
       <c r="P20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -2542,12 +2539,12 @@
         <v>22</v>
       </c>
       <c r="P21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -2556,16 +2553,16 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
+        <v>375</v>
+      </c>
+      <c r="J22" t="s">
         <v>376</v>
       </c>
-      <c r="J22" t="s">
-        <v>377</v>
-      </c>
       <c r="M22" t="s">
         <v>22</v>
       </c>
       <c r="P22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -2588,24 +2585,24 @@
         <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
         <v>201</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D24" t="s">
         <v>202</v>
       </c>
-      <c r="C24" t="s">
-        <v>551</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="J24" t="s">
         <v>203</v>
-      </c>
-      <c r="J24" t="s">
-        <v>204</v>
       </c>
       <c r="K24" t="s">
         <v>19</v>
@@ -2614,90 +2611,90 @@
         <v>22</v>
       </c>
       <c r="P24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M25" t="s">
         <v>22</v>
       </c>
       <c r="P25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" t="s">
         <v>381</v>
-      </c>
-      <c r="B26" t="s">
-        <v>382</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
       <c r="D26" t="s">
+        <v>382</v>
+      </c>
+      <c r="J26" t="s">
         <v>383</v>
       </c>
-      <c r="J26" t="s">
-        <v>384</v>
-      </c>
       <c r="M26" t="s">
         <v>22</v>
       </c>
       <c r="P26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>467</v>
+      </c>
+      <c r="B27" t="s">
         <v>468</v>
-      </c>
-      <c r="B27" t="s">
-        <v>469</v>
       </c>
       <c r="C27" t="s">
         <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M27" t="s">
         <v>22</v>
       </c>
       <c r="P27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>460</v>
+      </c>
+      <c r="B28" t="s">
         <v>461</v>
-      </c>
-      <c r="B28" t="s">
-        <v>462</v>
       </c>
       <c r="C28" t="s">
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M28" t="s">
         <v>22</v>
       </c>
       <c r="P28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -2720,7 +2717,7 @@
         <v>22</v>
       </c>
       <c r="P29" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -2743,7 +2740,7 @@
         <v>22</v>
       </c>
       <c r="P30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2763,7 +2760,7 @@
         <v>22</v>
       </c>
       <c r="P31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -2786,7 +2783,7 @@
         <v>22</v>
       </c>
       <c r="P32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -2806,7 +2803,7 @@
         <v>22</v>
       </c>
       <c r="P33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -2829,7 +2826,7 @@
         <v>22</v>
       </c>
       <c r="P34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -2855,12 +2852,12 @@
         <v>22</v>
       </c>
       <c r="P35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s">
         <v>104</v>
@@ -2869,19 +2866,19 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" t="s">
         <v>307</v>
       </c>
-      <c r="J36" t="s">
-        <v>308</v>
-      </c>
       <c r="M36" t="s">
         <v>22</v>
       </c>
       <c r="P36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -2901,7 +2898,7 @@
         <v>22</v>
       </c>
       <c r="P37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -2921,7 +2918,7 @@
         <v>22</v>
       </c>
       <c r="P38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -2941,7 +2938,7 @@
         <v>22</v>
       </c>
       <c r="P39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -2964,7 +2961,7 @@
         <v>22</v>
       </c>
       <c r="P40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -2987,7 +2984,7 @@
         <v>22</v>
       </c>
       <c r="P41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -3010,12 +3007,12 @@
         <v>22</v>
       </c>
       <c r="P42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s">
         <v>157</v>
@@ -3024,211 +3021,211 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
+        <v>337</v>
+      </c>
+      <c r="I43" t="s">
         <v>338</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>339</v>
       </c>
-      <c r="J43" t="s">
-        <v>340</v>
-      </c>
       <c r="M43" t="s">
         <v>22</v>
       </c>
       <c r="P43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" t="s">
         <v>232</v>
-      </c>
-      <c r="B44" t="s">
-        <v>233</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
       </c>
       <c r="D44" t="s">
+        <v>233</v>
+      </c>
+      <c r="H44" t="s">
         <v>234</v>
       </c>
-      <c r="H44" t="s">
-        <v>235</v>
-      </c>
       <c r="M44" t="s">
         <v>22</v>
       </c>
       <c r="P44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" t="s">
         <v>236</v>
-      </c>
-      <c r="B45" t="s">
-        <v>237</v>
       </c>
       <c r="C45" t="s">
         <v>19</v>
       </c>
       <c r="D45" t="s">
+        <v>237</v>
+      </c>
+      <c r="J45" t="s">
         <v>238</v>
       </c>
-      <c r="J45" t="s">
-        <v>239</v>
-      </c>
       <c r="M45" t="s">
         <v>22</v>
       </c>
       <c r="P45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" t="s">
         <v>249</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" t="s">
         <v>250</v>
       </c>
-      <c r="C46" t="s">
-        <v>237</v>
-      </c>
-      <c r="D46" t="s">
-        <v>251</v>
-      </c>
       <c r="M46" t="s">
         <v>22</v>
       </c>
       <c r="P46" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>251</v>
+      </c>
+      <c r="B47" t="s">
         <v>252</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" t="s">
         <v>253</v>
       </c>
-      <c r="C47" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" t="s">
-        <v>254</v>
-      </c>
       <c r="M47" t="s">
         <v>22</v>
       </c>
       <c r="P47" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" t="s">
         <v>269</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" t="s">
         <v>270</v>
       </c>
-      <c r="C48" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="I48" t="s">
         <v>271</v>
       </c>
-      <c r="I48" t="s">
-        <v>272</v>
-      </c>
       <c r="M48" t="s">
         <v>22</v>
       </c>
       <c r="P48" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" t="s">
         <v>240</v>
-      </c>
-      <c r="B49" t="s">
-        <v>241</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
       </c>
       <c r="D49" t="s">
+        <v>241</v>
+      </c>
+      <c r="H49" t="s">
         <v>242</v>
       </c>
-      <c r="H49" t="s">
-        <v>243</v>
-      </c>
       <c r="M49" t="s">
         <v>22</v>
       </c>
       <c r="P49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" t="s">
         <v>244</v>
-      </c>
-      <c r="B50" t="s">
-        <v>245</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
       </c>
       <c r="D50" t="s">
+        <v>245</v>
+      </c>
+      <c r="I50" t="s">
         <v>246</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>247</v>
       </c>
-      <c r="J50" t="s">
-        <v>248</v>
-      </c>
       <c r="M50" t="s">
         <v>22</v>
       </c>
       <c r="P50" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" t="s">
         <v>255</v>
-      </c>
-      <c r="B51" t="s">
-        <v>256</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
       </c>
       <c r="D51" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" t="s">
         <v>257</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>258</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>259</v>
       </c>
-      <c r="J51" t="s">
-        <v>260</v>
-      </c>
       <c r="M51" t="s">
         <v>22</v>
       </c>
       <c r="P51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
         <v>138</v>
@@ -3237,96 +3234,96 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M52" t="s">
         <v>22</v>
       </c>
       <c r="P52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>260</v>
+      </c>
+      <c r="B53" t="s">
         <v>261</v>
-      </c>
-      <c r="B53" t="s">
-        <v>262</v>
       </c>
       <c r="C53" t="s">
         <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M53" t="s">
         <v>22</v>
       </c>
       <c r="P53" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" t="s">
         <v>264</v>
-      </c>
-      <c r="B54" t="s">
-        <v>265</v>
       </c>
       <c r="C54" t="s">
         <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M54" t="s">
         <v>22</v>
       </c>
       <c r="P54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" t="s">
         <v>279</v>
-      </c>
-      <c r="B55" t="s">
-        <v>280</v>
       </c>
       <c r="C55" t="s">
         <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M55" t="s">
         <v>22</v>
       </c>
       <c r="P55" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" t="s">
         <v>282</v>
-      </c>
-      <c r="B56" t="s">
-        <v>283</v>
       </c>
       <c r="C56" t="s">
         <v>138</v>
       </c>
       <c r="D56" t="s">
+        <v>283</v>
+      </c>
+      <c r="H56" t="s">
         <v>284</v>
       </c>
-      <c r="H56" t="s">
-        <v>285</v>
-      </c>
       <c r="M56" t="s">
         <v>22</v>
       </c>
       <c r="P56" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -3346,110 +3343,110 @@
         <v>22</v>
       </c>
       <c r="P57" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" t="s">
         <v>276</v>
-      </c>
-      <c r="B58" t="s">
-        <v>277</v>
       </c>
       <c r="C58" t="s">
         <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M58" t="s">
         <v>22</v>
       </c>
       <c r="P58" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" t="s">
         <v>273</v>
-      </c>
-      <c r="B59" t="s">
-        <v>274</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M59" t="s">
         <v>22</v>
       </c>
       <c r="P59" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" t="s">
         <v>323</v>
-      </c>
-      <c r="B60" t="s">
-        <v>324</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M60" t="s">
         <v>22</v>
       </c>
       <c r="P60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>343</v>
+      </c>
+      <c r="B61" t="s">
         <v>344</v>
-      </c>
-      <c r="B61" t="s">
-        <v>345</v>
       </c>
       <c r="C61" t="s">
         <v>19</v>
       </c>
       <c r="D61" t="s">
+        <v>345</v>
+      </c>
+      <c r="I61" t="s">
         <v>346</v>
       </c>
-      <c r="I61" t="s">
-        <v>347</v>
-      </c>
       <c r="M61" t="s">
         <v>22</v>
       </c>
       <c r="P61" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>371</v>
+      </c>
+      <c r="B62" t="s">
         <v>372</v>
-      </c>
-      <c r="B62" t="s">
-        <v>373</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M62" t="s">
         <v>22</v>
       </c>
       <c r="P62" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -3469,274 +3466,274 @@
         <v>22</v>
       </c>
       <c r="P63" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>399</v>
+      </c>
+      <c r="B64" t="s">
         <v>400</v>
-      </c>
-      <c r="B64" t="s">
-        <v>401</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M64" t="s">
         <v>22</v>
       </c>
       <c r="P64" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>402</v>
+      </c>
+      <c r="B65" t="s">
         <v>403</v>
-      </c>
-      <c r="B65" t="s">
-        <v>404</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M65" t="s">
         <v>22</v>
       </c>
       <c r="P65" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>448</v>
+      </c>
+      <c r="B66" t="s">
         <v>449</v>
-      </c>
-      <c r="B66" t="s">
-        <v>450</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
       </c>
       <c r="D66" t="s">
+        <v>450</v>
+      </c>
+      <c r="I66" t="s">
         <v>451</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>452</v>
       </c>
-      <c r="J66" t="s">
-        <v>453</v>
-      </c>
       <c r="M66" t="s">
         <v>22</v>
       </c>
       <c r="P66" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>456</v>
+      </c>
+      <c r="B67" t="s">
         <v>457</v>
-      </c>
-      <c r="B67" t="s">
-        <v>458</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
       </c>
       <c r="D67" t="s">
+        <v>458</v>
+      </c>
+      <c r="J67" t="s">
         <v>459</v>
       </c>
-      <c r="J67" t="s">
-        <v>460</v>
-      </c>
       <c r="M67" t="s">
         <v>22</v>
       </c>
       <c r="P67" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M68" t="s">
         <v>22</v>
       </c>
       <c r="P68" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>532</v>
+      </c>
+      <c r="B69" t="s">
         <v>533</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" t="s">
         <v>534</v>
       </c>
-      <c r="C69" t="s">
-        <v>311</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="H69" t="s">
         <v>535</v>
       </c>
-      <c r="H69" t="s">
-        <v>536</v>
-      </c>
       <c r="M69" t="s">
         <v>22</v>
       </c>
       <c r="P69" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>308</v>
+      </c>
+      <c r="B70" t="s">
         <v>309</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>310</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>311</v>
       </c>
-      <c r="D70" t="s">
+      <c r="H70" t="s">
         <v>312</v>
       </c>
-      <c r="H70" t="s">
-        <v>313</v>
-      </c>
       <c r="M70" t="s">
         <v>22</v>
       </c>
       <c r="P70" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>395</v>
+      </c>
+      <c r="B71" t="s">
         <v>396</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>310</v>
+      </c>
+      <c r="D71" t="s">
         <v>397</v>
       </c>
-      <c r="C71" t="s">
-        <v>311</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="H71" t="s">
         <v>398</v>
       </c>
-      <c r="H71" t="s">
-        <v>399</v>
-      </c>
       <c r="M71" t="s">
         <v>22</v>
       </c>
       <c r="P71" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>318</v>
+      </c>
+      <c r="B72" t="s">
         <v>319</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>310</v>
+      </c>
+      <c r="D72" t="s">
         <v>320</v>
       </c>
-      <c r="C72" t="s">
-        <v>311</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="H72" t="s">
         <v>321</v>
       </c>
-      <c r="H72" t="s">
-        <v>322</v>
-      </c>
       <c r="M72" t="s">
         <v>22</v>
       </c>
       <c r="P72" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>477</v>
+      </c>
+      <c r="B73" t="s">
         <v>478</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>310</v>
+      </c>
+      <c r="D73" t="s">
         <v>479</v>
       </c>
-      <c r="C73" t="s">
-        <v>311</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="H73" t="s">
         <v>480</v>
       </c>
-      <c r="H73" t="s">
-        <v>481</v>
-      </c>
       <c r="M73" t="s">
         <v>22</v>
       </c>
       <c r="P73" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>507</v>
+      </c>
+      <c r="B74" t="s">
         <v>508</v>
-      </c>
-      <c r="B74" t="s">
-        <v>509</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
       </c>
       <c r="D74" t="s">
+        <v>509</v>
+      </c>
+      <c r="J74" t="s">
         <v>510</v>
       </c>
-      <c r="J74" t="s">
-        <v>511</v>
-      </c>
       <c r="M74" t="s">
         <v>22</v>
       </c>
       <c r="P74" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>516</v>
+      </c>
+      <c r="B75" t="s">
         <v>517</v>
-      </c>
-      <c r="B75" t="s">
-        <v>518</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M75" t="s">
         <v>22</v>
       </c>
       <c r="P75" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -3756,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="P76" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -3776,12 +3773,12 @@
         <v>22</v>
       </c>
       <c r="P77" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B78" t="s">
         <v>45</v>
@@ -3796,7 +3793,7 @@
         <v>22</v>
       </c>
       <c r="P78" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -3819,7 +3816,7 @@
         <v>22</v>
       </c>
       <c r="P79" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -3845,7 +3842,7 @@
         <v>22</v>
       </c>
       <c r="P80" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -3871,7 +3868,7 @@
         <v>22</v>
       </c>
       <c r="P81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -3894,7 +3891,7 @@
         <v>22</v>
       </c>
       <c r="P82" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -3914,1106 +3911,1106 @@
         <v>22</v>
       </c>
       <c r="P83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>208</v>
+      </c>
+      <c r="B84" t="s">
         <v>209</v>
-      </c>
-      <c r="B84" t="s">
-        <v>210</v>
       </c>
       <c r="C84" t="s">
         <v>25</v>
       </c>
       <c r="D84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M84" t="s">
         <v>22</v>
       </c>
       <c r="P84" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" t="s">
         <v>212</v>
-      </c>
-      <c r="B85" t="s">
-        <v>213</v>
       </c>
       <c r="C85" t="s">
         <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M85" t="s">
         <v>22</v>
       </c>
       <c r="P85" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>214</v>
+      </c>
+      <c r="B86" t="s">
         <v>215</v>
-      </c>
-      <c r="B86" t="s">
-        <v>216</v>
       </c>
       <c r="C86" t="s">
         <v>25</v>
       </c>
       <c r="D86" t="s">
+        <v>216</v>
+      </c>
+      <c r="H86" t="s">
         <v>217</v>
       </c>
-      <c r="H86" t="s">
-        <v>218</v>
-      </c>
       <c r="M86" t="s">
         <v>22</v>
       </c>
       <c r="P86" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>218</v>
+      </c>
+      <c r="B87" t="s">
         <v>219</v>
-      </c>
-      <c r="B87" t="s">
-        <v>220</v>
       </c>
       <c r="C87" t="s">
         <v>25</v>
       </c>
       <c r="D87" t="s">
+        <v>220</v>
+      </c>
+      <c r="H87" t="s">
         <v>221</v>
       </c>
-      <c r="H87" t="s">
-        <v>222</v>
-      </c>
       <c r="M87" t="s">
         <v>22</v>
       </c>
       <c r="P87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>222</v>
+      </c>
+      <c r="B88" t="s">
         <v>223</v>
-      </c>
-      <c r="B88" t="s">
-        <v>224</v>
       </c>
       <c r="C88" t="s">
         <v>25</v>
       </c>
       <c r="D88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M88" t="s">
         <v>22</v>
       </c>
       <c r="P88" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>225</v>
+      </c>
+      <c r="B89" t="s">
         <v>226</v>
-      </c>
-      <c r="B89" t="s">
-        <v>227</v>
       </c>
       <c r="C89" t="s">
         <v>25</v>
       </c>
       <c r="D89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M89" t="s">
         <v>22</v>
       </c>
       <c r="P89" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>228</v>
+      </c>
+      <c r="B90" t="s">
         <v>229</v>
-      </c>
-      <c r="B90" t="s">
-        <v>230</v>
       </c>
       <c r="C90" t="s">
         <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M90" t="s">
         <v>22</v>
       </c>
       <c r="P90" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91" t="s">
         <v>286</v>
-      </c>
-      <c r="B91" t="s">
-        <v>287</v>
       </c>
       <c r="C91" t="s">
         <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M91" t="s">
         <v>22</v>
       </c>
       <c r="P91" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>288</v>
+      </c>
+      <c r="B92" t="s">
         <v>289</v>
-      </c>
-      <c r="B92" t="s">
-        <v>290</v>
       </c>
       <c r="C92" t="s">
         <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M92" t="s">
         <v>22</v>
       </c>
       <c r="P92" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" t="s">
         <v>292</v>
-      </c>
-      <c r="B93" t="s">
-        <v>293</v>
       </c>
       <c r="C93" t="s">
         <v>25</v>
       </c>
       <c r="D93" t="s">
+        <v>293</v>
+      </c>
+      <c r="I93" t="s">
         <v>294</v>
       </c>
-      <c r="I93" t="s">
-        <v>295</v>
-      </c>
       <c r="M93" t="s">
         <v>22</v>
       </c>
       <c r="P93" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>299</v>
+      </c>
+      <c r="B94" t="s">
         <v>300</v>
-      </c>
-      <c r="B94" t="s">
-        <v>301</v>
       </c>
       <c r="C94" t="s">
         <v>25</v>
       </c>
       <c r="D94" t="s">
+        <v>301</v>
+      </c>
+      <c r="I94" t="s">
         <v>302</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>303</v>
       </c>
-      <c r="J94" t="s">
-        <v>304</v>
-      </c>
       <c r="M94" t="s">
         <v>22</v>
       </c>
       <c r="P94" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>313</v>
+      </c>
+      <c r="B95" t="s">
         <v>314</v>
-      </c>
-      <c r="B95" t="s">
-        <v>315</v>
       </c>
       <c r="C95" t="s">
         <v>25</v>
       </c>
       <c r="D95" t="s">
+        <v>315</v>
+      </c>
+      <c r="I95" t="s">
         <v>316</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>317</v>
       </c>
-      <c r="J95" t="s">
-        <v>318</v>
-      </c>
       <c r="M95" t="s">
         <v>22</v>
       </c>
       <c r="P95" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>325</v>
+      </c>
+      <c r="B96" t="s">
         <v>326</v>
-      </c>
-      <c r="B96" t="s">
-        <v>327</v>
       </c>
       <c r="C96" t="s">
         <v>25</v>
       </c>
       <c r="D96" t="s">
+        <v>327</v>
+      </c>
+      <c r="H96" t="s">
         <v>328</v>
       </c>
-      <c r="H96" t="s">
-        <v>329</v>
-      </c>
       <c r="M96" t="s">
         <v>22</v>
       </c>
       <c r="P96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>329</v>
+      </c>
+      <c r="B97" t="s">
         <v>330</v>
-      </c>
-      <c r="B97" t="s">
-        <v>331</v>
       </c>
       <c r="C97" t="s">
         <v>25</v>
       </c>
       <c r="D97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M97" t="s">
         <v>22</v>
       </c>
       <c r="P97" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>332</v>
+      </c>
+      <c r="B98" t="s">
         <v>333</v>
-      </c>
-      <c r="B98" t="s">
-        <v>334</v>
       </c>
       <c r="C98" t="s">
         <v>25</v>
       </c>
       <c r="D98" t="s">
+        <v>334</v>
+      </c>
+      <c r="H98" t="s">
         <v>335</v>
       </c>
-      <c r="H98" t="s">
-        <v>336</v>
-      </c>
       <c r="M98" t="s">
         <v>22</v>
       </c>
       <c r="P98" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>340</v>
+      </c>
+      <c r="B99" t="s">
         <v>341</v>
-      </c>
-      <c r="B99" t="s">
-        <v>342</v>
       </c>
       <c r="C99" t="s">
         <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M99" t="s">
         <v>22</v>
       </c>
       <c r="P99" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>354</v>
+      </c>
+      <c r="B100" t="s">
         <v>355</v>
-      </c>
-      <c r="B100" t="s">
-        <v>356</v>
       </c>
       <c r="C100" t="s">
         <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M100" t="s">
         <v>22</v>
       </c>
       <c r="P100" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>357</v>
+      </c>
+      <c r="B101" t="s">
         <v>358</v>
-      </c>
-      <c r="B101" t="s">
-        <v>359</v>
       </c>
       <c r="C101" t="s">
         <v>25</v>
       </c>
       <c r="D101" t="s">
+        <v>359</v>
+      </c>
+      <c r="J101" t="s">
         <v>360</v>
       </c>
-      <c r="J101" t="s">
-        <v>361</v>
-      </c>
       <c r="M101" t="s">
         <v>22</v>
       </c>
       <c r="P101" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>361</v>
+      </c>
+      <c r="B102" t="s">
         <v>362</v>
-      </c>
-      <c r="B102" t="s">
-        <v>363</v>
       </c>
       <c r="C102" t="s">
         <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M102" t="s">
         <v>22</v>
       </c>
       <c r="P102" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>364</v>
+      </c>
+      <c r="B103" t="s">
         <v>365</v>
-      </c>
-      <c r="B103" t="s">
-        <v>366</v>
       </c>
       <c r="C103" t="s">
         <v>25</v>
       </c>
       <c r="D103" t="s">
+        <v>366</v>
+      </c>
+      <c r="I103" t="s">
         <v>367</v>
       </c>
-      <c r="I103" t="s">
-        <v>368</v>
-      </c>
       <c r="M103" t="s">
         <v>22</v>
       </c>
       <c r="P103" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>387</v>
+      </c>
+      <c r="B104" t="s">
         <v>388</v>
-      </c>
-      <c r="B104" t="s">
-        <v>389</v>
       </c>
       <c r="C104" t="s">
         <v>25</v>
       </c>
       <c r="D104" t="s">
+        <v>389</v>
+      </c>
+      <c r="H104" t="s">
         <v>390</v>
       </c>
-      <c r="H104" t="s">
+      <c r="J104" t="s">
         <v>391</v>
       </c>
-      <c r="J104" t="s">
-        <v>392</v>
-      </c>
       <c r="M104" t="s">
         <v>22</v>
       </c>
       <c r="P104" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>408</v>
+      </c>
+      <c r="B105" t="s">
         <v>409</v>
-      </c>
-      <c r="B105" t="s">
-        <v>410</v>
       </c>
       <c r="C105" t="s">
         <v>25</v>
       </c>
       <c r="D105" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M105" t="s">
         <v>22</v>
       </c>
       <c r="P105" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>405</v>
+      </c>
+      <c r="B106" t="s">
         <v>406</v>
-      </c>
-      <c r="B106" t="s">
-        <v>407</v>
       </c>
       <c r="C106" t="s">
         <v>25</v>
       </c>
       <c r="D106" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M106" t="s">
         <v>22</v>
       </c>
       <c r="P106" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>411</v>
+      </c>
+      <c r="B107" t="s">
         <v>412</v>
-      </c>
-      <c r="B107" t="s">
-        <v>413</v>
       </c>
       <c r="C107" t="s">
         <v>25</v>
       </c>
       <c r="D107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M107" t="s">
         <v>22</v>
       </c>
       <c r="P107" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>463</v>
+      </c>
+      <c r="B108" t="s">
         <v>464</v>
-      </c>
-      <c r="B108" t="s">
-        <v>465</v>
       </c>
       <c r="C108" t="s">
         <v>25</v>
       </c>
       <c r="D108" t="s">
+        <v>465</v>
+      </c>
+      <c r="I108" t="s">
         <v>466</v>
       </c>
-      <c r="I108" t="s">
-        <v>467</v>
-      </c>
       <c r="M108" t="s">
         <v>22</v>
       </c>
       <c r="P108" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>470</v>
+      </c>
+      <c r="B109" t="s">
         <v>471</v>
-      </c>
-      <c r="B109" t="s">
-        <v>472</v>
       </c>
       <c r="C109" t="s">
         <v>25</v>
       </c>
       <c r="D109" t="s">
+        <v>472</v>
+      </c>
+      <c r="G109" t="s">
         <v>473</v>
       </c>
-      <c r="G109" t="s">
-        <v>474</v>
-      </c>
       <c r="M109" t="s">
         <v>22</v>
       </c>
       <c r="P109" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>474</v>
+      </c>
+      <c r="B110" t="s">
         <v>475</v>
-      </c>
-      <c r="B110" t="s">
-        <v>476</v>
       </c>
       <c r="C110" t="s">
         <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M110" t="s">
         <v>22</v>
       </c>
       <c r="P110" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>491</v>
+      </c>
+      <c r="B111" t="s">
         <v>492</v>
-      </c>
-      <c r="B111" t="s">
-        <v>493</v>
       </c>
       <c r="C111" t="s">
         <v>25</v>
       </c>
       <c r="D111" t="s">
+        <v>493</v>
+      </c>
+      <c r="H111" t="s">
         <v>494</v>
       </c>
-      <c r="H111" t="s">
-        <v>495</v>
-      </c>
       <c r="M111" t="s">
         <v>22</v>
       </c>
       <c r="P111" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>495</v>
+      </c>
+      <c r="B112" t="s">
         <v>496</v>
-      </c>
-      <c r="B112" t="s">
-        <v>497</v>
       </c>
       <c r="C112" t="s">
         <v>25</v>
       </c>
       <c r="D112" t="s">
+        <v>497</v>
+      </c>
+      <c r="I112" t="s">
         <v>498</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>499</v>
       </c>
-      <c r="J112" t="s">
-        <v>500</v>
-      </c>
       <c r="M112" t="s">
         <v>22</v>
       </c>
       <c r="P112" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>500</v>
+      </c>
+      <c r="B113" t="s">
         <v>501</v>
-      </c>
-      <c r="B113" t="s">
-        <v>502</v>
       </c>
       <c r="C113" t="s">
         <v>25</v>
       </c>
       <c r="D113" t="s">
+        <v>502</v>
+      </c>
+      <c r="J113" t="s">
         <v>503</v>
       </c>
-      <c r="J113" t="s">
-        <v>504</v>
-      </c>
       <c r="M113" t="s">
         <v>22</v>
       </c>
       <c r="P113" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>511</v>
+      </c>
+      <c r="B114" t="s">
         <v>512</v>
-      </c>
-      <c r="B114" t="s">
-        <v>513</v>
       </c>
       <c r="C114" t="s">
         <v>25</v>
       </c>
       <c r="D114" t="s">
+        <v>513</v>
+      </c>
+      <c r="H114" t="s">
         <v>514</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>515</v>
       </c>
-      <c r="I114" t="s">
-        <v>516</v>
-      </c>
       <c r="M114" t="s">
         <v>22</v>
       </c>
       <c r="P114" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>527</v>
+      </c>
+      <c r="B115" t="s">
         <v>528</v>
-      </c>
-      <c r="B115" t="s">
-        <v>529</v>
       </c>
       <c r="C115" t="s">
         <v>25</v>
       </c>
       <c r="D115" t="s">
+        <v>529</v>
+      </c>
+      <c r="H115" t="s">
         <v>530</v>
       </c>
-      <c r="H115" t="s">
+      <c r="J115" t="s">
         <v>531</v>
       </c>
-      <c r="J115" t="s">
-        <v>532</v>
-      </c>
       <c r="M115" t="s">
         <v>22</v>
       </c>
       <c r="P115" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>536</v>
+      </c>
+      <c r="B116" t="s">
         <v>537</v>
-      </c>
-      <c r="B116" t="s">
-        <v>538</v>
       </c>
       <c r="C116" t="s">
         <v>25</v>
       </c>
       <c r="D116" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M116" t="s">
         <v>22</v>
       </c>
       <c r="P116" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>542</v>
+      </c>
+      <c r="B117" t="s">
         <v>543</v>
-      </c>
-      <c r="B117" t="s">
-        <v>544</v>
       </c>
       <c r="C117" t="s">
         <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M117" t="s">
         <v>22</v>
       </c>
       <c r="P117" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>545</v>
+      </c>
+      <c r="B118" t="s">
         <v>546</v>
-      </c>
-      <c r="B118" t="s">
-        <v>547</v>
       </c>
       <c r="C118" t="s">
         <v>25</v>
       </c>
       <c r="D118" t="s">
+        <v>547</v>
+      </c>
+      <c r="H118" t="s">
         <v>548</v>
       </c>
-      <c r="H118" t="s">
-        <v>549</v>
-      </c>
       <c r="M118" t="s">
         <v>22</v>
       </c>
       <c r="P118" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>487</v>
+      </c>
+      <c r="B119" t="s">
         <v>488</v>
-      </c>
-      <c r="B119" t="s">
-        <v>489</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
       </c>
       <c r="D119" t="s">
+        <v>489</v>
+      </c>
+      <c r="I119" t="s">
         <v>490</v>
       </c>
-      <c r="I119" t="s">
-        <v>491</v>
-      </c>
       <c r="M119" t="s">
         <v>22</v>
       </c>
       <c r="P119" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>539</v>
+      </c>
+      <c r="B120" t="s">
         <v>540</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
+        <v>201</v>
+      </c>
+      <c r="D120" t="s">
         <v>541</v>
       </c>
-      <c r="C120" t="s">
-        <v>202</v>
-      </c>
-      <c r="D120" t="s">
-        <v>542</v>
-      </c>
       <c r="M120" t="s">
         <v>22</v>
       </c>
       <c r="P120" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>453</v>
+      </c>
+      <c r="B121" t="s">
         <v>454</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
+        <v>201</v>
+      </c>
+      <c r="D121" t="s">
         <v>455</v>
       </c>
-      <c r="C121" t="s">
-        <v>202</v>
-      </c>
-      <c r="D121" t="s">
-        <v>456</v>
-      </c>
       <c r="M121" t="s">
         <v>22</v>
       </c>
       <c r="P121" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>444</v>
+      </c>
+      <c r="B122" t="s">
         <v>445</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
+        <v>201</v>
+      </c>
+      <c r="D122" t="s">
         <v>446</v>
       </c>
-      <c r="C122" t="s">
-        <v>202</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="I122" t="s">
         <v>447</v>
       </c>
-      <c r="I122" t="s">
-        <v>448</v>
-      </c>
       <c r="M122" t="s">
         <v>22</v>
       </c>
       <c r="P122" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>519</v>
+      </c>
+      <c r="B123" t="s">
         <v>520</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
+        <v>201</v>
+      </c>
+      <c r="D123" t="s">
         <v>521</v>
       </c>
-      <c r="C123" t="s">
-        <v>202</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="I123" t="s">
         <v>522</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>523</v>
       </c>
-      <c r="J123" t="s">
-        <v>524</v>
-      </c>
       <c r="M123" t="s">
         <v>22</v>
       </c>
       <c r="P123" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>438</v>
+      </c>
+      <c r="B124" t="s">
         <v>439</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
+        <v>201</v>
+      </c>
+      <c r="D124" t="s">
         <v>440</v>
       </c>
-      <c r="C124" t="s">
-        <v>202</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="G124" t="s">
         <v>441</v>
       </c>
-      <c r="G124" t="s">
+      <c r="I124" t="s">
         <v>442</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>443</v>
       </c>
-      <c r="J124" t="s">
-        <v>444</v>
-      </c>
       <c r="M124" t="s">
         <v>22</v>
       </c>
       <c r="P124" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>481</v>
+      </c>
+      <c r="B125" t="s">
         <v>482</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
+        <v>201</v>
+      </c>
+      <c r="D125" t="s">
         <v>483</v>
       </c>
-      <c r="C125" t="s">
-        <v>202</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="I125" t="s">
         <v>484</v>
       </c>
-      <c r="I125" t="s">
-        <v>485</v>
-      </c>
       <c r="M125" t="s">
         <v>22</v>
       </c>
       <c r="P125" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B126" t="s">
         <v>91</v>
       </c>
       <c r="C126" t="s">
+        <v>378</v>
+      </c>
+      <c r="D126" t="s">
         <v>379</v>
       </c>
-      <c r="D126" t="s">
-        <v>380</v>
-      </c>
       <c r="M126" t="s">
         <v>22</v>
       </c>
       <c r="P126" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>392</v>
+      </c>
+      <c r="B127" t="s">
         <v>393</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
+        <v>348</v>
+      </c>
+      <c r="D127" t="s">
         <v>394</v>
       </c>
-      <c r="C127" t="s">
-        <v>349</v>
-      </c>
-      <c r="D127" t="s">
-        <v>395</v>
-      </c>
       <c r="M127" t="s">
         <v>22</v>
       </c>
       <c r="P127" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>414</v>
+      </c>
+      <c r="B128" t="s">
         <v>415</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
+        <v>348</v>
+      </c>
+      <c r="D128" t="s">
         <v>416</v>
       </c>
-      <c r="C128" t="s">
-        <v>349</v>
-      </c>
-      <c r="D128" t="s">
-        <v>417</v>
-      </c>
       <c r="M128" t="s">
         <v>22</v>
       </c>
       <c r="P128" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>417</v>
+      </c>
+      <c r="B129" t="s">
         <v>418</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
+        <v>415</v>
+      </c>
+      <c r="D129" t="s">
         <v>419</v>
       </c>
-      <c r="C129" t="s">
-        <v>416</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="I129" t="s">
         <v>420</v>
       </c>
-      <c r="I129" t="s">
-        <v>421</v>
-      </c>
       <c r="M129" t="s">
         <v>22</v>
       </c>
       <c r="P129" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>424</v>
+      </c>
+      <c r="B130" t="s">
         <v>425</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>418</v>
+      </c>
+      <c r="D130" t="s">
         <v>426</v>
       </c>
-      <c r="C130" t="s">
-        <v>419</v>
-      </c>
-      <c r="D130" t="s">
-        <v>427</v>
-      </c>
       <c r="M130" t="s">
         <v>22</v>
       </c>
       <c r="P130" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>432</v>
+      </c>
+      <c r="B131" t="s">
         <v>433</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
+        <v>415</v>
+      </c>
+      <c r="D131" t="s">
         <v>434</v>
       </c>
-      <c r="C131" t="s">
-        <v>416</v>
-      </c>
-      <c r="D131" t="s">
-        <v>435</v>
-      </c>
       <c r="M131" t="s">
         <v>22</v>
       </c>
       <c r="P131" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>384</v>
+      </c>
+      <c r="B132" t="s">
         <v>385</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
+        <v>369</v>
+      </c>
+      <c r="D132" t="s">
         <v>386</v>
       </c>
-      <c r="C132" t="s">
-        <v>370</v>
-      </c>
-      <c r="D132" t="s">
-        <v>387</v>
-      </c>
       <c r="M132" t="s">
         <v>22</v>
       </c>
       <c r="P132" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>421</v>
+      </c>
+      <c r="B133" t="s">
         <v>422</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
+        <v>418</v>
+      </c>
+      <c r="D133" t="s">
         <v>423</v>
       </c>
-      <c r="C133" t="s">
-        <v>419</v>
-      </c>
-      <c r="D133" t="s">
-        <v>424</v>
-      </c>
       <c r="M133" t="s">
         <v>22</v>
       </c>
       <c r="P133" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
@@ -5033,7 +5030,7 @@
         <v>22</v>
       </c>
       <c r="P134" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
@@ -5056,7 +5053,7 @@
         <v>22</v>
       </c>
       <c r="P135" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
@@ -5076,7 +5073,7 @@
         <v>22</v>
       </c>
       <c r="P136" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
@@ -5098,11 +5095,8 @@
       <c r="M137" t="s">
         <v>22</v>
       </c>
-      <c r="N137" t="s">
-        <v>160</v>
-      </c>
       <c r="P137" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
@@ -5128,81 +5122,81 @@
         <v>22</v>
       </c>
       <c r="P138" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" t="s">
         <v>161</v>
-      </c>
-      <c r="B139" t="s">
-        <v>162</v>
       </c>
       <c r="C139" t="s">
         <v>157</v>
       </c>
       <c r="D139" t="s">
+        <v>162</v>
+      </c>
+      <c r="J139" t="s">
         <v>163</v>
       </c>
-      <c r="J139" t="s">
-        <v>164</v>
-      </c>
       <c r="M139" t="s">
         <v>22</v>
       </c>
       <c r="P139" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" t="s">
         <v>165</v>
-      </c>
-      <c r="B140" t="s">
-        <v>166</v>
       </c>
       <c r="C140" t="s">
         <v>157</v>
       </c>
       <c r="D140" t="s">
+        <v>166</v>
+      </c>
+      <c r="I140" t="s">
         <v>167</v>
       </c>
-      <c r="I140" t="s">
-        <v>168</v>
-      </c>
       <c r="M140" t="s">
         <v>22</v>
       </c>
       <c r="P140" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>168</v>
+      </c>
+      <c r="B141" t="s">
         <v>169</v>
-      </c>
-      <c r="B141" t="s">
-        <v>170</v>
       </c>
       <c r="C141" t="s">
         <v>157</v>
       </c>
       <c r="D141" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M141" t="s">
         <v>22</v>
       </c>
       <c r="P141" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B142" t="s">
         <v>120</v>
@@ -5211,96 +5205,96 @@
         <v>19</v>
       </c>
       <c r="D142" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M142" t="s">
         <v>22</v>
       </c>
       <c r="P142" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>295</v>
+      </c>
+      <c r="B143" t="s">
         <v>296</v>
-      </c>
-      <c r="B143" t="s">
-        <v>297</v>
       </c>
       <c r="C143" t="s">
         <v>25</v>
       </c>
       <c r="D143" t="s">
+        <v>297</v>
+      </c>
+      <c r="J143" t="s">
         <v>298</v>
       </c>
-      <c r="J143" t="s">
-        <v>299</v>
-      </c>
       <c r="M143" t="s">
         <v>22</v>
       </c>
       <c r="P143" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>351</v>
+      </c>
+      <c r="B144" t="s">
         <v>352</v>
-      </c>
-      <c r="B144" t="s">
-        <v>353</v>
       </c>
       <c r="C144" t="s">
         <v>25</v>
       </c>
       <c r="D144" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M144" t="s">
         <v>22</v>
       </c>
       <c r="P144" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>435</v>
+      </c>
+      <c r="B145" t="s">
         <v>436</v>
-      </c>
-      <c r="B145" t="s">
-        <v>437</v>
       </c>
       <c r="C145" t="s">
         <v>25</v>
       </c>
       <c r="D145" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M145" t="s">
         <v>22</v>
       </c>
       <c r="P145" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>504</v>
+      </c>
+      <c r="B146" t="s">
         <v>505</v>
-      </c>
-      <c r="B146" t="s">
-        <v>506</v>
       </c>
       <c r="C146" t="s">
         <v>25</v>
       </c>
       <c r="D146" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M146" t="s">
         <v>22</v>
       </c>
       <c r="P146" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/StyleOfDelivery/BCIO_StyleOfDelivery.xlsx
+++ b/StyleOfDelivery/BCIO_StyleOfDelivery.xlsx
@@ -581,8 +581,10 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0</v>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U2" t="inlineStr"/>
     </row>
@@ -630,8 +632,10 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>0</v>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U3" t="inlineStr"/>
     </row>
@@ -683,8 +687,10 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>0</v>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U4" t="inlineStr"/>
     </row>
@@ -737,8 +743,10 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>0</v>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U5" t="inlineStr"/>
     </row>
@@ -786,8 +794,10 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>0</v>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U6" t="inlineStr"/>
     </row>
@@ -835,8 +845,10 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>0</v>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U7" t="inlineStr"/>
     </row>
@@ -888,8 +900,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>0</v>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U8" t="inlineStr"/>
     </row>
@@ -937,8 +951,10 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>0</v>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U9" t="inlineStr"/>
     </row>
@@ -990,8 +1006,10 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>0</v>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U10" t="inlineStr"/>
     </row>
@@ -1039,8 +1057,10 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>0</v>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U11" t="inlineStr"/>
     </row>
@@ -1089,8 +1109,10 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="n">
-        <v>0</v>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U12" t="inlineStr"/>
     </row>
@@ -1139,8 +1161,10 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>0</v>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U13" t="inlineStr"/>
     </row>
@@ -1192,8 +1216,10 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>0</v>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U14" t="inlineStr"/>
     </row>
@@ -1241,8 +1267,10 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>0</v>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U15" t="inlineStr"/>
     </row>
@@ -1290,8 +1318,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>0</v>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U16" t="inlineStr"/>
     </row>
@@ -1347,8 +1377,10 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>0</v>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U17" t="inlineStr"/>
     </row>
@@ -1404,8 +1436,10 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>0</v>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U18" t="inlineStr"/>
     </row>
@@ -1457,8 +1491,10 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>0</v>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U19" t="inlineStr"/>
     </row>
@@ -1510,8 +1546,10 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>0</v>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U20" t="inlineStr"/>
     </row>
@@ -1559,8 +1597,10 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>0</v>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U21" t="inlineStr"/>
     </row>
@@ -1612,8 +1652,10 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="n">
-        <v>0</v>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U22" t="inlineStr"/>
     </row>
@@ -1669,8 +1711,10 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="n">
-        <v>0</v>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U23" t="inlineStr"/>
     </row>
@@ -1718,8 +1762,10 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="n">
-        <v>0</v>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U24" t="inlineStr"/>
     </row>
@@ -1767,8 +1813,10 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="n">
-        <v>0</v>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U25" t="inlineStr"/>
     </row>
@@ -1820,8 +1868,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="n">
-        <v>0</v>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U26" t="inlineStr"/>
     </row>
@@ -1877,8 +1927,10 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="n">
-        <v>0</v>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U27" t="inlineStr"/>
     </row>
@@ -1926,8 +1978,10 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="n">
-        <v>0</v>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U28" t="inlineStr"/>
     </row>
@@ -1980,8 +2034,10 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="n">
-        <v>0</v>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U29" t="inlineStr"/>
     </row>
@@ -2034,8 +2090,10 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="n">
-        <v>0</v>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U30" t="inlineStr"/>
     </row>
@@ -2084,8 +2142,10 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="n">
-        <v>0</v>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U31" t="inlineStr"/>
     </row>
@@ -2133,8 +2193,10 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="n">
-        <v>0</v>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U32" t="inlineStr"/>
     </row>
@@ -2182,8 +2244,10 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="n">
-        <v>0</v>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U33" t="inlineStr"/>
     </row>
@@ -2231,8 +2295,10 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="n">
-        <v>0</v>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U34" t="inlineStr"/>
     </row>
@@ -2284,8 +2350,10 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="n">
-        <v>0</v>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U35" t="inlineStr"/>
     </row>
@@ -2337,8 +2405,10 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="n">
-        <v>0</v>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U36" t="inlineStr"/>
     </row>
@@ -2390,8 +2460,10 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="n">
-        <v>0</v>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U37" t="inlineStr"/>
     </row>
@@ -2443,8 +2515,10 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
-      <c r="T38" t="n">
-        <v>0</v>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U38" t="inlineStr"/>
     </row>
@@ -2496,8 +2570,10 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="n">
-        <v>0</v>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U39" t="inlineStr"/>
     </row>
@@ -2549,8 +2625,10 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="n">
-        <v>0</v>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U40" t="inlineStr"/>
     </row>
@@ -2602,8 +2680,10 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="n">
-        <v>0</v>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U41" t="inlineStr"/>
     </row>
@@ -2656,8 +2736,10 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="n">
-        <v>0</v>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U42" t="inlineStr"/>
     </row>
@@ -2710,8 +2792,10 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="n">
-        <v>0</v>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U43" t="inlineStr"/>
     </row>
@@ -2764,8 +2848,10 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="n">
-        <v>0</v>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U44" t="inlineStr"/>
     </row>
@@ -2814,8 +2900,10 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="n">
-        <v>0</v>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U45" t="inlineStr"/>
     </row>
@@ -2868,8 +2956,10 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="n">
-        <v>0</v>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U46" t="inlineStr"/>
     </row>
@@ -2922,8 +3012,10 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="n">
-        <v>0</v>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U47" t="inlineStr"/>
     </row>
@@ -2972,8 +3064,10 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="n">
-        <v>0</v>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U48" t="inlineStr"/>
     </row>
@@ -3022,8 +3116,10 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="n">
-        <v>0</v>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U49" t="inlineStr"/>
     </row>
@@ -3079,8 +3175,10 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="n">
-        <v>0</v>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U50" t="inlineStr"/>
     </row>
@@ -3128,8 +3226,10 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="n">
-        <v>0</v>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U51" t="inlineStr"/>
     </row>
@@ -3177,8 +3277,10 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
-      <c r="T52" t="n">
-        <v>0</v>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U52" t="inlineStr"/>
     </row>
@@ -3226,8 +3328,10 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="n">
-        <v>0</v>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U53" t="inlineStr"/>
     </row>
@@ -3275,8 +3379,10 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="n">
-        <v>0</v>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U54" t="inlineStr"/>
     </row>
@@ -3328,8 +3434,10 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="n">
-        <v>0</v>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U55" t="inlineStr"/>
     </row>
@@ -3381,8 +3489,10 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="n">
-        <v>0</v>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U56" t="inlineStr"/>
     </row>
@@ -3430,8 +3540,10 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="n">
-        <v>0</v>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U57" t="inlineStr"/>
     </row>
@@ -3479,8 +3591,10 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="n">
-        <v>0</v>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U58" t="inlineStr"/>
     </row>
@@ -3528,8 +3642,10 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
-      <c r="T59" t="n">
-        <v>0</v>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U59" t="inlineStr"/>
     </row>
@@ -3581,8 +3697,10 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
-      <c r="T60" t="n">
-        <v>0</v>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U60" t="inlineStr"/>
     </row>
@@ -3634,8 +3752,10 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
-      <c r="T61" t="n">
-        <v>0</v>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U61" t="inlineStr"/>
     </row>
@@ -3687,8 +3807,10 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="n">
-        <v>0</v>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U62" t="inlineStr"/>
     </row>
@@ -3744,8 +3866,10 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
-      <c r="T63" t="n">
-        <v>0</v>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U63" t="inlineStr"/>
     </row>
@@ -3793,8 +3917,10 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
-      <c r="T64" t="n">
-        <v>0</v>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U64" t="inlineStr"/>
     </row>
@@ -3842,8 +3968,10 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
-      <c r="T65" t="n">
-        <v>0</v>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U65" t="inlineStr"/>
     </row>
@@ -3903,8 +4031,10 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
-      <c r="T66" t="n">
-        <v>0</v>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U66" t="inlineStr"/>
     </row>
@@ -3952,8 +4082,10 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
-      <c r="T67" t="n">
-        <v>0</v>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U67" t="inlineStr"/>
     </row>
@@ -4001,8 +4133,10 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
-      <c r="T68" t="n">
-        <v>0</v>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U68" t="inlineStr"/>
     </row>
@@ -4050,8 +4184,10 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
-      <c r="T69" t="n">
-        <v>0</v>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U69" t="inlineStr"/>
     </row>
@@ -4103,8 +4239,10 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
-      <c r="T70" t="n">
-        <v>0</v>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U70" t="inlineStr"/>
     </row>
@@ -4152,8 +4290,10 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
-      <c r="T71" t="n">
-        <v>0</v>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U71" t="inlineStr"/>
     </row>
@@ -4201,8 +4341,10 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
-      <c r="T72" t="n">
-        <v>0</v>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U72" t="inlineStr"/>
     </row>
@@ -4250,8 +4392,10 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
-      <c r="T73" t="n">
-        <v>0</v>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U73" t="inlineStr"/>
     </row>
@@ -4303,8 +4447,10 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
-      <c r="T74" t="n">
-        <v>0</v>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U74" t="inlineStr"/>
     </row>
@@ -4352,8 +4498,10 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
-      <c r="T75" t="n">
-        <v>0</v>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U75" t="inlineStr"/>
     </row>
@@ -4401,8 +4549,10 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
-      <c r="T76" t="n">
-        <v>0</v>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U76" t="inlineStr"/>
     </row>
@@ -4454,8 +4604,10 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
-      <c r="T77" t="n">
-        <v>0</v>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U77" t="inlineStr"/>
     </row>
@@ -4507,8 +4659,10 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
-      <c r="T78" t="n">
-        <v>0</v>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U78" t="inlineStr"/>
     </row>
@@ -4564,8 +4718,10 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
-      <c r="T79" t="n">
-        <v>0</v>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U79" t="inlineStr"/>
     </row>
@@ -4621,8 +4777,10 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
-      <c r="T80" t="n">
-        <v>0</v>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U80" t="inlineStr"/>
     </row>
@@ -4674,8 +4832,10 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
-      <c r="T81" t="n">
-        <v>0</v>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U81" t="inlineStr"/>
     </row>
@@ -4731,8 +4891,10 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
-      <c r="T82" t="n">
-        <v>0</v>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U82" t="inlineStr"/>
     </row>
@@ -4784,8 +4946,10 @@
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
-      <c r="T83" t="n">
-        <v>0</v>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U83" t="inlineStr"/>
     </row>
@@ -4833,8 +4997,10 @@
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
-      <c r="T84" t="n">
-        <v>0</v>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U84" t="inlineStr"/>
     </row>
@@ -4886,8 +5052,10 @@
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
-      <c r="T85" t="n">
-        <v>0</v>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U85" t="inlineStr"/>
     </row>
@@ -4935,8 +5103,10 @@
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
-      <c r="T86" t="n">
-        <v>0</v>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U86" t="inlineStr"/>
     </row>
@@ -4988,8 +5158,10 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
-      <c r="T87" t="n">
-        <v>0</v>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U87" t="inlineStr"/>
     </row>
@@ -5045,8 +5217,10 @@
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
-      <c r="T88" t="n">
-        <v>0</v>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U88" t="inlineStr"/>
     </row>
@@ -5094,8 +5268,10 @@
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
-      <c r="T89" t="n">
-        <v>0</v>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U89" t="inlineStr"/>
     </row>
@@ -5147,8 +5323,10 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="n">
-        <v>0</v>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U90" t="inlineStr"/>
     </row>
@@ -5165,7 +5343,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>interpersonal behaviour</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -5186,7 +5364,11 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
@@ -5196,8 +5378,10 @@
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
-      <c r="T91" t="n">
-        <v>0</v>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U91" t="inlineStr"/>
     </row>
@@ -5245,8 +5429,10 @@
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
-      <c r="T92" t="n">
-        <v>0</v>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U92" t="inlineStr"/>
     </row>
@@ -5294,8 +5480,10 @@
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
-      <c r="T93" t="n">
-        <v>0</v>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U93" t="inlineStr"/>
     </row>
@@ -5347,8 +5535,10 @@
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
-      <c r="T94" t="n">
-        <v>0</v>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U94" t="inlineStr"/>
     </row>
@@ -5396,8 +5586,10 @@
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
-      <c r="T95" t="n">
-        <v>0</v>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U95" t="inlineStr"/>
     </row>
@@ -5449,8 +5641,10 @@
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
-      <c r="T96" t="n">
-        <v>0</v>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U96" t="inlineStr"/>
     </row>
@@ -5502,8 +5696,10 @@
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
-      <c r="T97" t="n">
-        <v>0</v>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U97" t="inlineStr"/>
     </row>
@@ -5551,8 +5747,10 @@
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
-      <c r="T98" t="n">
-        <v>0</v>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U98" t="inlineStr"/>
     </row>
@@ -5604,8 +5802,10 @@
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
-      <c r="T99" t="n">
-        <v>0</v>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U99" t="inlineStr"/>
     </row>
@@ -5653,8 +5853,10 @@
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
-      <c r="T100" t="n">
-        <v>0</v>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U100" t="inlineStr"/>
     </row>
@@ -5706,8 +5908,10 @@
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
-      <c r="T101" t="n">
-        <v>0</v>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U101" t="inlineStr"/>
     </row>
@@ -5755,8 +5959,10 @@
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
-      <c r="T102" t="n">
-        <v>0</v>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U102" t="inlineStr"/>
     </row>
@@ -5812,8 +6018,10 @@
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
-      <c r="T103" t="n">
-        <v>0</v>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U103" t="inlineStr"/>
     </row>
@@ -5861,8 +6069,10 @@
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
-      <c r="T104" t="n">
-        <v>0</v>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U104" t="inlineStr"/>
     </row>
@@ -5914,8 +6124,10 @@
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
-      <c r="T105" t="n">
-        <v>0</v>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U105" t="inlineStr"/>
     </row>
@@ -5963,8 +6175,10 @@
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
-      <c r="T106" t="n">
-        <v>0</v>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U106" t="inlineStr"/>
     </row>
@@ -6012,8 +6226,10 @@
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
-      <c r="T107" t="n">
-        <v>0</v>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U107" t="inlineStr"/>
     </row>
@@ -6061,8 +6277,10 @@
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
-      <c r="T108" t="n">
-        <v>0</v>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U108" t="inlineStr"/>
     </row>
@@ -6110,8 +6328,10 @@
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
-      <c r="T109" t="n">
-        <v>0</v>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U109" t="inlineStr"/>
     </row>
@@ -6159,8 +6379,10 @@
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
-      <c r="T110" t="n">
-        <v>0</v>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U110" t="inlineStr"/>
     </row>
@@ -6208,8 +6430,10 @@
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
-      <c r="T111" t="n">
-        <v>0</v>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U111" t="inlineStr"/>
     </row>
@@ -6261,8 +6485,10 @@
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr"/>
-      <c r="T112" t="n">
-        <v>0</v>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U112" t="inlineStr"/>
     </row>
@@ -6311,8 +6537,10 @@
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
-      <c r="T113" t="n">
-        <v>0</v>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U113" t="inlineStr"/>
     </row>
@@ -6360,8 +6588,10 @@
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
-      <c r="T114" t="n">
-        <v>0</v>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U114" t="inlineStr"/>
     </row>
@@ -6417,8 +6647,10 @@
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
-      <c r="T115" t="n">
-        <v>0</v>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U115" t="inlineStr"/>
     </row>
@@ -6466,8 +6698,10 @@
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr"/>
-      <c r="T116" t="n">
-        <v>0</v>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U116" t="inlineStr"/>
     </row>
@@ -6515,8 +6749,10 @@
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
-      <c r="T117" t="n">
-        <v>0</v>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U117" t="inlineStr"/>
     </row>
@@ -6576,8 +6812,10 @@
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
-      <c r="T118" t="n">
-        <v>0</v>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U118" t="inlineStr"/>
     </row>
@@ -6629,8 +6867,10 @@
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
-      <c r="T119" t="n">
-        <v>0</v>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U119" t="inlineStr"/>
     </row>
@@ -6686,8 +6926,10 @@
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
-      <c r="T120" t="n">
-        <v>0</v>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U120" t="inlineStr"/>
     </row>
@@ -6735,8 +6977,10 @@
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr"/>
-      <c r="T121" t="n">
-        <v>0</v>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U121" t="inlineStr"/>
     </row>
@@ -6788,8 +7032,10 @@
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr"/>
-      <c r="T122" t="n">
-        <v>0</v>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U122" t="inlineStr"/>
     </row>
@@ -6837,8 +7083,10 @@
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr"/>
-      <c r="T123" t="n">
-        <v>0</v>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U123" t="inlineStr"/>
     </row>
@@ -6890,8 +7138,10 @@
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr"/>
-      <c r="T124" t="n">
-        <v>0</v>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U124" t="inlineStr"/>
     </row>
@@ -6939,8 +7189,10 @@
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="inlineStr"/>
-      <c r="T125" t="n">
-        <v>0</v>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U125" t="inlineStr"/>
     </row>
@@ -6992,8 +7244,10 @@
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr"/>
-      <c r="T126" t="n">
-        <v>0</v>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U126" t="inlineStr"/>
     </row>
@@ -7041,8 +7295,10 @@
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="inlineStr"/>
-      <c r="T127" t="n">
-        <v>0</v>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U127" t="inlineStr"/>
     </row>
@@ -7094,8 +7350,10 @@
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
-      <c r="T128" t="n">
-        <v>0</v>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U128" t="inlineStr"/>
     </row>
@@ -7147,8 +7405,10 @@
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
-      <c r="T129" t="n">
-        <v>0</v>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U129" t="inlineStr"/>
     </row>
@@ -7196,8 +7456,10 @@
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
-      <c r="T130" t="n">
-        <v>0</v>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U130" t="inlineStr"/>
     </row>
@@ -7249,8 +7511,10 @@
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr"/>
-      <c r="T131" t="n">
-        <v>0</v>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U131" t="inlineStr"/>
     </row>
@@ -7302,8 +7566,10 @@
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="inlineStr"/>
-      <c r="T132" t="n">
-        <v>0</v>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U132" t="inlineStr"/>
     </row>
@@ -7359,8 +7625,10 @@
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="inlineStr"/>
-      <c r="T133" t="n">
-        <v>0</v>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U133" t="inlineStr"/>
     </row>
@@ -7412,8 +7680,10 @@
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="inlineStr"/>
-      <c r="T134" t="n">
-        <v>0</v>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U134" t="inlineStr"/>
     </row>
@@ -7461,8 +7731,10 @@
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="inlineStr"/>
-      <c r="T135" t="n">
-        <v>0</v>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U135" t="inlineStr"/>
     </row>
@@ -7514,8 +7786,10 @@
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="inlineStr"/>
-      <c r="T136" t="n">
-        <v>0</v>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U136" t="inlineStr"/>
     </row>
@@ -7571,8 +7845,10 @@
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr"/>
-      <c r="T137" t="n">
-        <v>0</v>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U137" t="inlineStr"/>
     </row>
@@ -7620,8 +7896,10 @@
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="inlineStr"/>
-      <c r="T138" t="n">
-        <v>0</v>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U138" t="inlineStr"/>
     </row>
@@ -7677,8 +7955,10 @@
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="inlineStr"/>
-      <c r="T139" t="n">
-        <v>0</v>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U139" t="inlineStr"/>
     </row>
@@ -7727,8 +8007,10 @@
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="inlineStr"/>
-      <c r="T140" t="n">
-        <v>0</v>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U140" t="inlineStr"/>
     </row>
@@ -7784,8 +8066,10 @@
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="inlineStr"/>
-      <c r="T141" t="n">
-        <v>0</v>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U141" t="inlineStr"/>
     </row>
@@ -7837,8 +8121,10 @@
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
-      <c r="T142" t="n">
-        <v>0</v>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U142" t="inlineStr"/>
     </row>
@@ -7886,8 +8172,10 @@
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
-      <c r="T143" t="n">
-        <v>0</v>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U143" t="inlineStr"/>
     </row>
@@ -7935,8 +8223,10 @@
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="inlineStr"/>
-      <c r="T144" t="n">
-        <v>0</v>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U144" t="inlineStr"/>
     </row>
@@ -7984,8 +8274,10 @@
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
-      <c r="T145" t="n">
-        <v>0</v>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U145" t="inlineStr"/>
     </row>
@@ -8037,8 +8329,10 @@
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="inlineStr"/>
-      <c r="T146" t="n">
-        <v>0</v>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U146" t="inlineStr"/>
     </row>

--- a/StyleOfDelivery/BCIO_StyleOfDelivery.xlsx
+++ b/StyleOfDelivery/BCIO_StyleOfDelivery.xlsx
@@ -6440,7 +6440,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:050323</t>
+          <t>BCIO:050428</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">

--- a/StyleOfDelivery/BCIO_StyleOfDelivery.xlsx
+++ b/StyleOfDelivery/BCIO_StyleOfDelivery.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U146"/>
+  <dimension ref="A1:U140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6389,22 +6389,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>non-responsive communication style</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -6440,34 +6440,42 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
+          <t>BCIO:044129</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>object layout</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t xml:space="preserve">An attribute of an object used in communication process, concerning how the object's components are arranged. </t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>http://id.loc.gov/ontologies/bibframe/Layout</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>supportive touching</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
@@ -6495,30 +6503,33 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
+          <t>object visual style</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve">A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual
-</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
+        </is>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
@@ -6547,30 +6558,38 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:050324</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
+          <t>offering reassurance</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">A non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings. </t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>made reassuring statements</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
@@ -6598,38 +6617,30 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:044126</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using gesture</t>
+          <t>oral communication pace</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">non-linguistic communication behaviour using body language </t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">making a thumbs up sign, beckoning, pointing, nodding, head movements </t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
-        </is>
-      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
@@ -6657,22 +6668,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
+          <t>paraphrasing</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A communication in which one participant summarises what the other said.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -6680,7 +6691,11 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
@@ -6708,22 +6723,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>non-responsive communication style</t>
+          <t>participant-led intervention delivery</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -6759,42 +6774,34 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>object layout</t>
+          <t>patient communication style</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve">An attribute of an object used in communication process, concerning how the object's components are arranged. </t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>http://id.loc.gov/ontologies/bibframe/Layout</t>
-        </is>
-      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
-        </is>
-      </c>
+          <t>"willing to listen"</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
@@ -6822,33 +6829,29 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:044006</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>object visual style</t>
+          <t>person-centred intervention delivery</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
-        </is>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
@@ -6877,38 +6880,34 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>offering reassurance</t>
+          <t>persuasive communication style</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D010565</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>based on Roter Interactional Analysis System</t>
-        </is>
-      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
@@ -6936,22 +6935,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>oral communication pace</t>
+          <t>polite communication style</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+          <t>A communication style characterised by courtesy.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -6987,34 +6986,34 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>paraphrasing</t>
+          <t>re-evaluation prompting reflective communication</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>reflective communication</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
@@ -7042,29 +7041,33 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>participant-led intervention delivery</t>
+          <t>readability</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+        </is>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
@@ -7093,33 +7096,29 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>patient communication style</t>
+          <t>reflective communication</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>"willing to listen"</t>
-        </is>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
@@ -7148,29 +7147,33 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>person-centred intervention delivery</t>
+          <t>relationship building</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+        </is>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
@@ -7199,12 +7202,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>persuasive communication style</t>
+          <t>relaxed communication style</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7214,17 +7217,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D010565</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>calm communication style</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -7254,12 +7257,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>polite communication style</t>
+          <t>respectful communication style</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -7269,15 +7272,23 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
@@ -7305,34 +7316,34 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>re-evaluation prompting reflective communication</t>
+          <t>responsive communication style</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>reflective communication</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
+        </is>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
@@ -7360,33 +7371,29 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>readability</t>
+          <t>rushed communication style</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+          <t>A communication style conveying information in a hurried way.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
-        </is>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
@@ -7415,12 +7422,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>reflective communication</t>
+          <t>script-based communication</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -7430,7 +7437,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -7438,7 +7445,11 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
@@ -7466,31 +7477,35 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>relationship building</t>
+          <t>semi-structured communication style</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -7521,32 +7536,28 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>relaxed communication style</t>
+          <t>shifting focus of communication</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>calm communication style</t>
-        </is>
-      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -7576,22 +7587,22 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044128</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>respectful communication style</t>
+          <t>source visual style</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -7600,12 +7611,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>"acknowledging the victim's feelings"</t>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
         </is>
       </c>
       <c r="K133" t="inlineStr"/>
@@ -7635,22 +7646,23 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t xml:space="preserve">
+BCIO:044008</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>responsive communication style</t>
+          <t>source-led intervention delivery</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -7658,11 +7670,7 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
@@ -7690,12 +7698,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>rushed communication style</t>
+          <t>structured communication style</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -7705,15 +7713,23 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>standardised</t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+        </is>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
@@ -7741,34 +7757,34 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>script-based communication</t>
+          <t>summarising reflective communication</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>reflective communication</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
@@ -7796,12 +7812,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>semi-structured communication style</t>
+          <t>theatrical communication style</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -7811,22 +7827,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>organised communication style</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
-        </is>
-      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
@@ -7855,22 +7863,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:044125</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>shifting focus of communication</t>
+          <t>tone of voice</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -7906,38 +7914,30 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>source visual style</t>
+          <t>verbally dominant communication style</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
-        </is>
-      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
@@ -7965,29 +7965,32 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-BCIO:044008</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>source-led intervention delivery</t>
+          <t>warm communication style</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>friendly communication style</t>
+        </is>
+      </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -8014,328 +8017,6 @@
       </c>
       <c r="U140" t="inlineStr"/>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>BCIO:044120</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>structured communication style</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>communication style</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>standardised</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>BCIO:044072</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>summarising reflective communication</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>reflective communication</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>BCIO:044121</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>theatrical communication style</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>communication style</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>BCIO:044125</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>tone of voice</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>communication process attribute</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>BCIO:044122</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>verbally dominant communication style</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>communication style</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>BCIO:044123</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>warm communication style</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>communication style</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>friendly communication style</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U146" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
